--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H2">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I2">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J2">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N2">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O2">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P2">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q2">
-        <v>0.04045039081666667</v>
+        <v>73.03944894361211</v>
       </c>
       <c r="R2">
-        <v>0.36405351735</v>
+        <v>657.355040492509</v>
       </c>
       <c r="S2">
-        <v>0.0001363551476998346</v>
+        <v>0.3455550978596752</v>
       </c>
       <c r="T2">
-        <v>0.0001363551476998345</v>
+        <v>0.3455550978596752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H3">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q3">
-        <v>0.01489042150277778</v>
+        <v>35.4367128676779</v>
       </c>
       <c r="R3">
-        <v>0.134013793525</v>
+        <v>318.930415809101</v>
       </c>
       <c r="S3">
-        <v>5.019446245961813E-05</v>
+        <v>0.1676537399983574</v>
       </c>
       <c r="T3">
-        <v>5.019446245961812E-05</v>
+        <v>0.1676537399983574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H4">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I4">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J4">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N4">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q4">
-        <v>0.01588320309444444</v>
+        <v>29.40883787367278</v>
       </c>
       <c r="R4">
-        <v>0.14294882785</v>
+        <v>264.679540863055</v>
       </c>
       <c r="S4">
-        <v>5.354105263668035E-05</v>
+        <v>0.1391354123881995</v>
       </c>
       <c r="T4">
-        <v>5.354105263668035E-05</v>
+        <v>0.1391354123881996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H5">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I5">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J5">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N5">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O5">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P5">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q5">
-        <v>0.02320486748611111</v>
+        <v>19.65681730691611</v>
       </c>
       <c r="R5">
-        <v>0.208843807375</v>
+        <v>176.911355762245</v>
       </c>
       <c r="S5">
-        <v>7.822181861639943E-05</v>
+        <v>0.09299787342789383</v>
       </c>
       <c r="T5">
-        <v>7.822181861639943E-05</v>
+        <v>0.09299787342789384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H6">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I6">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J6">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N6">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O6">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P6">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q6">
-        <v>0.006093210269444443</v>
+        <v>18.531665584372</v>
       </c>
       <c r="R6">
-        <v>0.05483889242499999</v>
+        <v>166.784990259348</v>
       </c>
       <c r="S6">
-        <v>2.053974187843735E-05</v>
+        <v>0.08767469644320881</v>
       </c>
       <c r="T6">
-        <v>2.053974187843735E-05</v>
+        <v>0.08767469644320883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H7">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I7">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J7">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N7">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q7">
-        <v>0.02269302423333333</v>
+        <v>34.50591854314533</v>
       </c>
       <c r="R7">
-        <v>0.2042372181</v>
+        <v>310.553266888308</v>
       </c>
       <c r="S7">
-        <v>7.649643448728192E-05</v>
+        <v>0.1632500824057407</v>
       </c>
       <c r="T7">
-        <v>7.649643448728192E-05</v>
+        <v>0.1632500824057407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H8">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I8">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J8">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N8">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O8">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P8">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q8">
-        <v>96.26516512565932</v>
+        <v>0.2736850756326666</v>
       </c>
       <c r="R8">
-        <v>866.3864861309339</v>
+        <v>2.463165680694</v>
       </c>
       <c r="S8">
-        <v>0.3245024471716567</v>
+        <v>0.001294824570294761</v>
       </c>
       <c r="T8">
-        <v>0.3245024471716566</v>
+        <v>0.001294824570294761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H9">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I9">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J9">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.931899</v>
       </c>
       <c r="O9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q9">
-        <v>35.43671286767788</v>
+        <v>0.1327844005073333</v>
       </c>
       <c r="R9">
-        <v>318.930415809101</v>
+        <v>1.195059604566</v>
       </c>
       <c r="S9">
-        <v>0.1194544260145427</v>
+        <v>0.0006282129339033412</v>
       </c>
       <c r="T9">
-        <v>0.1194544260145427</v>
+        <v>0.0006282129339033413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H10">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I10">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J10">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N10">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q10">
-        <v>37.79936702072821</v>
+        <v>0.1101974362366667</v>
       </c>
       <c r="R10">
-        <v>340.194303186554</v>
+        <v>0.9917769261299999</v>
       </c>
       <c r="S10">
-        <v>0.1274187509443792</v>
+        <v>0.0005213523159525013</v>
       </c>
       <c r="T10">
-        <v>0.1274187509443792</v>
+        <v>0.0005213523159525015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H11">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I11">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J11">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N11">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O11">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P11">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q11">
-        <v>55.22370378061054</v>
+        <v>0.07365577929666665</v>
       </c>
       <c r="R11">
-        <v>497.0133340254949</v>
+        <v>0.6629020136699999</v>
       </c>
       <c r="S11">
-        <v>0.1861548463070593</v>
+        <v>0.0003484710028746222</v>
       </c>
       <c r="T11">
-        <v>0.1861548463070592</v>
+        <v>0.0003484710028746223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H12">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I12">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J12">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N12">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O12">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P12">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q12">
-        <v>14.50082139853522</v>
+        <v>0.06943973935199999</v>
       </c>
       <c r="R12">
-        <v>130.507392586817</v>
+        <v>0.6249576541679999</v>
       </c>
       <c r="S12">
-        <v>0.04888115055618957</v>
+        <v>0.0003285246024467613</v>
       </c>
       <c r="T12">
-        <v>0.04888115055618957</v>
+        <v>0.0003285246024467614</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H13">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I13">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J13">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,772 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N13">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q13">
-        <v>54.00560244086265</v>
+        <v>0.129296634392</v>
       </c>
       <c r="R13">
-        <v>486.0504219677639</v>
+        <v>1.163669709528</v>
       </c>
       <c r="S13">
-        <v>0.1820487206370384</v>
+        <v>0.0006117120514524602</v>
       </c>
       <c r="T13">
-        <v>0.1820487206370384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.157812</v>
-      </c>
-      <c r="I14">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J14">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>13.521022</v>
-      </c>
-      <c r="N14">
-        <v>40.563066</v>
-      </c>
-      <c r="O14">
-        <v>0.3282908109760463</v>
-      </c>
-      <c r="P14">
-        <v>0.3282908109760462</v>
-      </c>
-      <c r="Q14">
-        <v>0.7112598412879999</v>
-      </c>
-      <c r="R14">
-        <v>6.401338571591999</v>
-      </c>
-      <c r="S14">
-        <v>0.002397602068947776</v>
-      </c>
-      <c r="T14">
-        <v>0.002397602068947776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.157812</v>
-      </c>
-      <c r="I15">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J15">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.977299666666667</v>
-      </c>
-      <c r="N15">
-        <v>14.931899</v>
-      </c>
-      <c r="O15">
-        <v>0.1208489819808595</v>
-      </c>
-      <c r="P15">
-        <v>0.1208489819808595</v>
-      </c>
-      <c r="Q15">
-        <v>0.2618258716653333</v>
-      </c>
-      <c r="R15">
-        <v>2.356432844988</v>
-      </c>
-      <c r="S15">
-        <v>0.0008825948200197498</v>
-      </c>
-      <c r="T15">
-        <v>0.0008825948200197497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.157812</v>
-      </c>
-      <c r="I16">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J16">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.309148666666666</v>
-      </c>
-      <c r="N16">
-        <v>15.927446</v>
-      </c>
-      <c r="O16">
-        <v>0.1289062854399907</v>
-      </c>
-      <c r="P16">
-        <v>0.1289062854399907</v>
-      </c>
-      <c r="Q16">
-        <v>0.2792824564613333</v>
-      </c>
-      <c r="R16">
-        <v>2.513542108152</v>
-      </c>
-      <c r="S16">
-        <v>0.0009414396210250471</v>
-      </c>
-      <c r="T16">
-        <v>0.0009414396210250471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.157812</v>
-      </c>
-      <c r="I17">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J17">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>7.756501666666666</v>
-      </c>
-      <c r="N17">
-        <v>23.269505</v>
-      </c>
-      <c r="O17">
-        <v>0.1883280881051044</v>
-      </c>
-      <c r="P17">
-        <v>0.1883280881051043</v>
-      </c>
-      <c r="Q17">
-        <v>0.4080230136733332</v>
-      </c>
-      <c r="R17">
-        <v>3.672207123059999</v>
-      </c>
-      <c r="S17">
-        <v>0.001375414110249719</v>
-      </c>
-      <c r="T17">
-        <v>0.001375414110249719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.157812</v>
-      </c>
-      <c r="I18">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J18">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.036727666666666</v>
-      </c>
-      <c r="N18">
-        <v>6.110182999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.04945180752071481</v>
-      </c>
-      <c r="P18">
-        <v>0.04945180752071481</v>
-      </c>
-      <c r="Q18">
-        <v>0.1071400221773333</v>
-      </c>
-      <c r="R18">
-        <v>0.9642601995959997</v>
-      </c>
-      <c r="S18">
-        <v>0.0003611607515676829</v>
-      </c>
-      <c r="T18">
-        <v>0.0003611607515676829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.157812</v>
-      </c>
-      <c r="I19">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J19">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>7.585411999999999</v>
-      </c>
-      <c r="N19">
-        <v>22.756236</v>
-      </c>
-      <c r="O19">
-        <v>0.1841740259772843</v>
-      </c>
-      <c r="P19">
-        <v>0.1841740259772843</v>
-      </c>
-      <c r="Q19">
-        <v>0.3990230128479999</v>
-      </c>
-      <c r="R19">
-        <v>3.591207115631999</v>
-      </c>
-      <c r="S19">
-        <v>0.001345075801594087</v>
-      </c>
-      <c r="T19">
-        <v>0.001345075801594087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.027522</v>
-      </c>
-      <c r="H20">
-        <v>0.082566</v>
-      </c>
-      <c r="I20">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J20">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>13.521022</v>
-      </c>
-      <c r="N20">
-        <v>40.563066</v>
-      </c>
-      <c r="O20">
-        <v>0.3282908109760463</v>
-      </c>
-      <c r="P20">
-        <v>0.3282908109760462</v>
-      </c>
-      <c r="Q20">
-        <v>0.3721255674840001</v>
-      </c>
-      <c r="R20">
-        <v>3.349130107356</v>
-      </c>
-      <c r="S20">
-        <v>0.00125440658774201</v>
-      </c>
-      <c r="T20">
-        <v>0.00125440658774201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.027522</v>
-      </c>
-      <c r="H21">
-        <v>0.082566</v>
-      </c>
-      <c r="I21">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J21">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.977299666666667</v>
-      </c>
-      <c r="N21">
-        <v>14.931899</v>
-      </c>
-      <c r="O21">
-        <v>0.1208489819808595</v>
-      </c>
-      <c r="P21">
-        <v>0.1208489819808595</v>
-      </c>
-      <c r="Q21">
-        <v>0.136985241426</v>
-      </c>
-      <c r="R21">
-        <v>1.232867172834</v>
-      </c>
-      <c r="S21">
-        <v>0.0004617666838374185</v>
-      </c>
-      <c r="T21">
-        <v>0.0004617666838374184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.027522</v>
-      </c>
-      <c r="H22">
-        <v>0.082566</v>
-      </c>
-      <c r="I22">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J22">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>5.309148666666666</v>
-      </c>
-      <c r="N22">
-        <v>15.927446</v>
-      </c>
-      <c r="O22">
-        <v>0.1289062854399907</v>
-      </c>
-      <c r="P22">
-        <v>0.1289062854399907</v>
-      </c>
-      <c r="Q22">
-        <v>0.146118389604</v>
-      </c>
-      <c r="R22">
-        <v>1.315065506436</v>
-      </c>
-      <c r="S22">
-        <v>0.0004925538219498775</v>
-      </c>
-      <c r="T22">
-        <v>0.0004925538219498775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.027522</v>
-      </c>
-      <c r="H23">
-        <v>0.082566</v>
-      </c>
-      <c r="I23">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J23">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>7.756501666666666</v>
-      </c>
-      <c r="N23">
-        <v>23.269505</v>
-      </c>
-      <c r="O23">
-        <v>0.1883280881051044</v>
-      </c>
-      <c r="P23">
-        <v>0.1883280881051043</v>
-      </c>
-      <c r="Q23">
-        <v>0.21347443887</v>
-      </c>
-      <c r="R23">
-        <v>1.92126994983</v>
-      </c>
-      <c r="S23">
-        <v>0.0007196058691790124</v>
-      </c>
-      <c r="T23">
-        <v>0.0007196058691790123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.027522</v>
-      </c>
-      <c r="H24">
-        <v>0.082566</v>
-      </c>
-      <c r="I24">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J24">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.036727666666666</v>
-      </c>
-      <c r="N24">
-        <v>6.110182999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.04945180752071481</v>
-      </c>
-      <c r="P24">
-        <v>0.04945180752071481</v>
-      </c>
-      <c r="Q24">
-        <v>0.05605481884199999</v>
-      </c>
-      <c r="R24">
-        <v>0.504493369578</v>
-      </c>
-      <c r="S24">
-        <v>0.0001889564710791151</v>
-      </c>
-      <c r="T24">
-        <v>0.0001889564710791151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.027522</v>
-      </c>
-      <c r="H25">
-        <v>0.082566</v>
-      </c>
-      <c r="I25">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J25">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>7.585411999999999</v>
-      </c>
-      <c r="N25">
-        <v>22.756236</v>
-      </c>
-      <c r="O25">
-        <v>0.1841740259772843</v>
-      </c>
-      <c r="P25">
-        <v>0.1841740259772843</v>
-      </c>
-      <c r="Q25">
-        <v>0.208765709064</v>
-      </c>
-      <c r="R25">
-        <v>1.878891381576</v>
-      </c>
-      <c r="S25">
-        <v>0.0007037331041645591</v>
-      </c>
-      <c r="T25">
-        <v>0.0007037331041645591</v>
+        <v>0.0006117120514524604</v>
       </c>
     </row>
   </sheetData>
